--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_10.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373982.2359842735</v>
+        <v>376800.6061809954</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221765</v>
+        <v>2629876.587221766</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179438</v>
+        <v>19997574.02179436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4901378.24669789</v>
+        <v>4901378.246697891</v>
       </c>
     </row>
     <row r="11">
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="3">
@@ -735,55 +735,55 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="C3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34.86547882798917</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>39.58387696184059</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>39.58387696184059</v>
@@ -838,10 +838,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="J4" t="n">
-        <v>9.977552361264268</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>34.86547882798917</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>39.58387696184059</v>
@@ -972,61 +972,61 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="C6" t="n">
+      <c r="S6" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X6" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="H7" t="n">
-        <v>27.29193749722201</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I7" t="n">
         <v>39.58387696184059</v>
@@ -1078,7 +1078,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1130,61 +1130,61 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>12.92549025883184</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,22 +1212,22 @@
         <v>39.58387696184059</v>
       </c>
       <c r="C9" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>34.86547882798917</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="H10" t="n">
-        <v>27.29193749722201</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I10" t="n">
         <v>39.58387696184059</v>
@@ -1315,7 +1315,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="I11" t="n">
-        <v>39.58387696184059</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1458,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="G12" t="n">
-        <v>34.86547882798917</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H12" t="n">
         <v>39.58387696184059</v>
@@ -1470,7 +1470,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1543,58 +1543,58 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>9.977552361264268</v>
+      </c>
+      <c r="Y13" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="I13" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="J13" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K13" t="n">
-        <v>9.977552361264268</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F14" t="n">
         <v>39.58387696184059</v>
@@ -1622,10 +1622,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="H14" t="n">
-        <v>39.58387696184059</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="I14" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>39.58387696184059</v>
@@ -1704,10 +1704,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="H16" t="n">
-        <v>27.29193749722201</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I16" t="n">
         <v>39.58387696184059</v>
@@ -1789,7 +1789,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>44.13217237922859</v>
+        <v>26.92232807701203</v>
       </c>
       <c r="G17" t="n">
         <v>44.13217237922859</v>
@@ -1862,10 +1862,10 @@
         <v>44.13217237922859</v>
       </c>
       <c r="I17" t="n">
-        <v>38.87161743162454</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1932,19 +1932,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2041,13 +2041,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S19" t="n">
         <v>44.13217237922859</v>
@@ -2056,7 +2056,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,65 +2078,65 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
+      <c r="H20" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2169,19 +2169,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2.776004375564122</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>170.7632668135831</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,61 +2324,61 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2412,13 +2412,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>116.5625341764489</v>
       </c>
       <c r="X24" t="n">
-        <v>189.6723709928539</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="E26" t="n">
         <v>241.0142888776591</v>
@@ -2567,11 +2567,11 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
@@ -2597,16 +2597,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2649,13 +2649,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>31.60815104066432</v>
       </c>
       <c r="I27" t="n">
-        <v>15.78865291772223</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2688,13 +2688,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>21.18375537072436</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2840,19 +2840,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>241.0142888776591</v>
@@ -2874,25 +2874,25 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>93.09147558602278</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.8246775480002</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -2925,10 +2925,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3032,16 +3032,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>241.0142888776591</v>
@@ -3086,16 +3086,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3111,25 +3111,25 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>121.3940076622085</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,10 +3159,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>103.2987694555463</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3266,13 +3266,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,19 +3314,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>79.32685963449069</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3351,16 +3351,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>55.49566750574714</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,11 +3500,11 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>212.2853856434421</v>
-      </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>58.40807884708546</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3597,13 +3597,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>79.73605578874087</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3679,13 +3679,13 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>74.40953377397729</v>
+      </c>
+      <c r="C41" t="n">
         <v>236.4659934602711</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>236.4659934602711</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3803,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>208.2792470398066</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3974,70 +3974,70 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
       <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="T44" t="n">
+      <c r="W44" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="U44" t="n">
-        <v>34.86547882798917</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4101,19 +4101,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4186,22 +4186,22 @@
         <v>39.58387696184059</v>
       </c>
       <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4331,13 +4331,13 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K2" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L2" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M2" t="n">
-        <v>42.35474834916943</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N2" t="n">
         <v>79.95943146291799</v>
@@ -4352,25 +4352,25 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R2" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S2" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T2" t="n">
         <v>123.1178524655551</v>
       </c>
       <c r="U2" t="n">
+        <v>123.1178524655551</v>
+      </c>
+      <c r="V2" t="n">
         <v>83.13413836268582</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
+        <v>83.13413836268582</v>
+      </c>
+      <c r="X2" t="n">
         <v>43.15042425981653</v>
-      </c>
-      <c r="W2" t="n">
-        <v>3.166710156947247</v>
-      </c>
-      <c r="X2" t="n">
-        <v>3.166710156947247</v>
       </c>
       <c r="Y2" t="n">
         <v>3.166710156947247</v>
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.36807964162378</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C3" t="n">
-        <v>38.38436553875449</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D3" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E3" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F3" t="n">
         <v>3.166710156947247</v>
@@ -4410,49 +4410,49 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L3" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M3" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N3" t="n">
-        <v>40.77139327069581</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O3" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q3" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S3" t="n">
-        <v>118.3517937444931</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T3" t="n">
-        <v>118.3517937444931</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="U3" t="n">
-        <v>118.3517937444931</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="V3" t="n">
-        <v>118.3517937444931</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W3" t="n">
-        <v>118.3517937444931</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X3" t="n">
-        <v>118.3517937444931</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y3" t="n">
-        <v>118.3517937444931</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="C4" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="D4" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="E4" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="F4" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="G4" t="n">
-        <v>93.21247408113457</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="H4" t="n">
-        <v>53.22875997826529</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="I4" t="n">
-        <v>13.245045875396</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="J4" t="n">
-        <v>3.166710156947247</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="K4" t="n">
         <v>3.166710156947247</v>
@@ -4504,34 +4504,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P4" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q4" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="S4" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="T4" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="U4" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="V4" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="W4" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="X4" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
     </row>
     <row r="5">
@@ -4580,7 +4580,7 @@
         <v>119.1474696551402</v>
       </c>
       <c r="O5" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P5" t="n">
         <v>158.3355078473624</v>
@@ -4604,7 +4604,7 @@
         <v>123.1178524655551</v>
       </c>
       <c r="W5" t="n">
-        <v>83.13413836268582</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="X5" t="n">
         <v>83.13413836268582</v>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C6" t="n">
         <v>3.166710156947247</v>
@@ -4647,49 +4647,49 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K6" t="n">
-        <v>3.166710156947247</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L6" t="n">
         <v>40.77139327069581</v>
       </c>
       <c r="M6" t="n">
+        <v>40.77139327069581</v>
+      </c>
+      <c r="N6" t="n">
+        <v>40.77139327069581</v>
+      </c>
+      <c r="O6" t="n">
         <v>79.95943146291799</v>
       </c>
-      <c r="N6" t="n">
-        <v>79.95943146291799</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>119.1474696551402</v>
-      </c>
-      <c r="P6" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="Q6" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W6" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X6" t="n">
-        <v>123.1178524655551</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y6" t="n">
-        <v>83.13413836268582</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="7">
@@ -4714,16 +4714,16 @@
         <v>133.1961881840039</v>
       </c>
       <c r="G7" t="n">
-        <v>133.1961881840039</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="H7" t="n">
-        <v>105.6285745504463</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="I7" t="n">
-        <v>65.64486044757699</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="J7" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K7" t="n">
         <v>3.166710156947247</v>
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>43.15042425981653</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="C8" t="n">
-        <v>3.166710156947247</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="D8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="E8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="F8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="G8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="H8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="I8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J8" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K8" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L8" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M8" t="n">
-        <v>79.95943146291799</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N8" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O8" t="n">
         <v>119.1474696551402</v>
@@ -4823,31 +4823,31 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R8" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S8" t="n">
-        <v>158.3355078473624</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="T8" t="n">
-        <v>158.3355078473624</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="U8" t="n">
-        <v>158.3355078473624</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="V8" t="n">
-        <v>158.3355078473624</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="W8" t="n">
-        <v>158.3355078473624</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="X8" t="n">
-        <v>123.1178524655551</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="Y8" t="n">
-        <v>83.13413836268582</v>
+        <v>55.22041350689989</v>
       </c>
     </row>
     <row r="9">
@@ -4860,19 +4860,19 @@
         <v>78.36807964162378</v>
       </c>
       <c r="C9" t="n">
-        <v>43.15042425981653</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D9" t="n">
-        <v>43.15042425981653</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E9" t="n">
-        <v>3.166710156947247</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F9" t="n">
-        <v>3.166710156947247</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="G9" t="n">
-        <v>3.166710156947247</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H9" t="n">
         <v>3.166710156947247</v>
@@ -4887,10 +4887,10 @@
         <v>3.166710156947247</v>
       </c>
       <c r="L9" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M9" t="n">
-        <v>40.77139327069581</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N9" t="n">
         <v>79.95943146291799</v>
@@ -4899,7 +4899,7 @@
         <v>119.1474696551402</v>
       </c>
       <c r="P9" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q9" t="n">
         <v>158.3355078473624</v>
@@ -4951,16 +4951,16 @@
         <v>133.1961881840039</v>
       </c>
       <c r="G10" t="n">
-        <v>133.1961881840039</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="H10" t="n">
-        <v>105.6285745504463</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="I10" t="n">
-        <v>65.64486044757699</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="J10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K10" t="n">
         <v>3.166710156947247</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>123.1178524655551</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C11" t="n">
-        <v>123.1178524655551</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D11" t="n">
-        <v>123.1178524655551</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E11" t="n">
-        <v>123.1178524655551</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="F11" t="n">
-        <v>83.13413836268582</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="G11" t="n">
-        <v>83.13413836268582</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="H11" t="n">
-        <v>43.15042425981653</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="I11" t="n">
         <v>3.166710156947247</v>
@@ -5045,10 +5045,10 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L11" t="n">
-        <v>81.54278654139161</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M11" t="n">
-        <v>119.1474696551402</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N11" t="n">
         <v>119.1474696551402</v>
@@ -5078,13 +5078,13 @@
         <v>158.3355078473624</v>
       </c>
       <c r="W11" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X11" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y11" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C12" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D12" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E12" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F12" t="n">
-        <v>118.3517937444931</v>
+        <v>123.8719851183408</v>
       </c>
       <c r="G12" t="n">
-        <v>83.13413836268582</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="H12" t="n">
-        <v>43.15042425981653</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="I12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J12" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K12" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L12" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M12" t="n">
         <v>42.35474834916943</v>
       </c>
       <c r="N12" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O12" t="n">
         <v>119.1474696551402</v>
@@ -5142,28 +5142,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S12" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T12" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U12" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V12" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W12" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X12" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y12" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.1961881840039</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H13" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I13" t="n">
-        <v>53.22875997826529</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J13" t="n">
-        <v>13.245045875396</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K13" t="n">
         <v>3.166710156947247</v>
@@ -5239,10 +5239,10 @@
         <v>133.1961881840039</v>
       </c>
       <c r="X13" t="n">
-        <v>133.1961881840039</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.1961881840039</v>
+        <v>83.13413836268582</v>
       </c>
     </row>
     <row r="14">
@@ -5261,16 +5261,16 @@
         <v>158.3355078473624</v>
       </c>
       <c r="E14" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F14" t="n">
-        <v>118.3517937444931</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="G14" t="n">
-        <v>78.36807964162378</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H14" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I14" t="n">
         <v>3.166710156947247</v>
@@ -5282,16 +5282,16 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L14" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M14" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N14" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O14" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P14" t="n">
         <v>158.3355078473624</v>
@@ -5340,19 +5340,19 @@
         <v>158.3355078473624</v>
       </c>
       <c r="E15" t="n">
-        <v>123.8719851183408</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F15" t="n">
-        <v>83.88827101547153</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="G15" t="n">
-        <v>43.90455691260225</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="H15" t="n">
-        <v>3.920842809732961</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="I15" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J15" t="n">
         <v>3.166710156947247</v>
@@ -5364,7 +5364,7 @@
         <v>42.35474834916943</v>
       </c>
       <c r="M15" t="n">
-        <v>42.35474834916943</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N15" t="n">
         <v>79.95943146291799</v>
@@ -5425,16 +5425,16 @@
         <v>133.1961881840039</v>
       </c>
       <c r="G16" t="n">
-        <v>133.1961881840039</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="H16" t="n">
-        <v>105.6285745504463</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="I16" t="n">
-        <v>65.64486044757699</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="J16" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K16" t="n">
         <v>3.166710156947247</v>
@@ -5501,31 +5501,31 @@
         <v>176.5286895169144</v>
       </c>
       <c r="F17" t="n">
-        <v>131.9507376187037</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="G17" t="n">
-        <v>87.37278572049297</v>
+        <v>104.756466833843</v>
       </c>
       <c r="H17" t="n">
-        <v>42.79483382228227</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J17" t="n">
         <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
-        <v>47.22142444577459</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L17" t="n">
-        <v>47.22142444577459</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M17" t="n">
         <v>89.14698820604177</v>
       </c>
       <c r="N17" t="n">
-        <v>89.14698820604177</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O17" t="n">
         <v>132.8378388614781</v>
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C18" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D18" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E18" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F18" t="n">
-        <v>3.530573790338288</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G18" t="n">
-        <v>3.530573790338288</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H18" t="n">
-        <v>3.530573790338288</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J18" t="n">
         <v>3.530573790338288</v>
       </c>
       <c r="K18" t="n">
-        <v>47.22142444577459</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L18" t="n">
         <v>47.22142444577459</v>
       </c>
       <c r="M18" t="n">
-        <v>89.14698820604177</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N18" t="n">
-        <v>132.8378388614781</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O18" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P18" t="n">
         <v>176.5286895169144</v>
@@ -5616,28 +5616,28 @@
         <v>176.5286895169144</v>
       </c>
       <c r="R18" t="n">
-        <v>131.9507376187037</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S18" t="n">
-        <v>87.37278572049297</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T18" t="n">
-        <v>42.79483382228227</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U18" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V18" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W18" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X18" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.530573790338288</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="19">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C19" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D19" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E19" t="n">
         <v>3.530573790338288</v>
@@ -5689,34 +5689,34 @@
         <v>138.062864280609</v>
       </c>
       <c r="P19" t="n">
-        <v>135.3139342451479</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q19" t="n">
-        <v>135.3139342451479</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R19" t="n">
-        <v>135.3139342451479</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S19" t="n">
-        <v>90.73598234693722</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="T19" t="n">
-        <v>46.15803044872652</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="U19" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V19" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W19" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X19" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>340.2687303644548</v>
+        <v>310.6614854603483</v>
       </c>
       <c r="C21" t="n">
-        <v>165.8157010833278</v>
+        <v>136.2084561792213</v>
       </c>
       <c r="D21" t="n">
-        <v>165.8157010833278</v>
+        <v>136.2084561792213</v>
       </c>
       <c r="E21" t="n">
-        <v>165.8157010833278</v>
+        <v>136.2084561792213</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>136.2084561792213</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>136.2084561792213</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>22.83932058680058</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P21" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5859,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X21" t="n">
-        <v>512.7568786610034</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y21" t="n">
-        <v>340.2687303644548</v>
+        <v>310.6614854603483</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>749.627473042513</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="C23" t="n">
-        <v>749.627473042513</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="D23" t="n">
-        <v>749.627473042513</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,46 +6072,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>454.3181732824481</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>210.869396638348</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>382.9414955037181</v>
       </c>
     </row>
     <row r="25">
@@ -6130,13 +6130,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
         <v>829.5248650203655</v>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="D26" t="n">
         <v>506.1786963984129</v>
@@ -6215,7 +6215,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>35.98341002332393</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="C27" t="n">
-        <v>35.98341002332393</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="D27" t="n">
-        <v>35.98341002332393</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="E27" t="n">
-        <v>35.98341002332393</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="F27" t="n">
-        <v>35.98341002332393</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="G27" t="n">
-        <v>35.98341002332393</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="H27" t="n">
-        <v>35.98341002332393</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6336,19 +6336,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>487.2836868729568</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V27" t="n">
-        <v>487.2836868729568</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W27" t="n">
-        <v>243.8349102288568</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X27" t="n">
-        <v>35.98341002332393</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="Y27" t="n">
-        <v>35.98341002332393</v>
+        <v>51.20856840381305</v>
       </c>
     </row>
     <row r="28">
@@ -6406,19 +6406,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
         <v>829.5248650203655</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>40.6788758079141</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6488,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>284.1276524520142</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>40.6788758079141</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>40.6788758079141</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>325.0531560887832</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="C30" t="n">
-        <v>325.0531560887832</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="D30" t="n">
-        <v>325.0531560887832</v>
+        <v>204.3666984270771</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>204.3666984270771</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>204.3666984270771</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>204.3666984270771</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>928.8807135429593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>755.4633689936281</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>553.2767743523941</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>325.0531560887832</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V30" t="n">
-        <v>325.0531560887832</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W30" t="n">
-        <v>325.0531560887832</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X30" t="n">
-        <v>325.0531560887832</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y30" t="n">
-        <v>325.0531560887832</v>
+        <v>353.3011080883284</v>
       </c>
     </row>
     <row r="31">
@@ -6643,7 +6643,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
         <v>19.28114311021272</v>
@@ -6680,13 +6680,13 @@
         <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G32" t="n">
         <v>262.7299197543128</v>
@@ -6734,13 +6734,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X32" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="W32" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="X32" t="n">
-        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
         <v>506.1786963984129</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>382.9414955037181</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C33" t="n">
-        <v>382.9414955037181</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D33" t="n">
-        <v>382.9414955037181</v>
+        <v>540.5358718529395</v>
       </c>
       <c r="E33" t="n">
-        <v>223.7040404982626</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F33" t="n">
-        <v>223.7040404982626</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6786,16 +6786,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6807,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U33" t="n">
-        <v>382.9414955037181</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V33" t="n">
-        <v>382.9414955037181</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W33" t="n">
-        <v>382.9414955037181</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X33" t="n">
-        <v>382.9414955037181</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y33" t="n">
-        <v>382.9414955037181</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6962,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>30.58726043968704</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>512.8480801015824</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C36" t="n">
-        <v>338.3950508204554</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D36" t="n">
-        <v>189.4606411592041</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E36" t="n">
-        <v>189.4606411592041</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>189.4606411592041</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
         <v>20.03527576299844</v>
@@ -7020,19 +7020,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X36" t="n">
-        <v>720.6083788665362</v>
+        <v>582.7883107557723</v>
       </c>
       <c r="Y36" t="n">
-        <v>512.8480801015824</v>
+        <v>582.7883107557723</v>
       </c>
     </row>
     <row r="37">
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
         <v>19.28114311021272</v>
@@ -7114,31 +7114,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7196,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,40 +7227,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>259.0600686093459</v>
+        <v>253.4863644856259</v>
       </c>
       <c r="C39" t="n">
-        <v>259.0600686093459</v>
+        <v>79.03333520449891</v>
       </c>
       <c r="D39" t="n">
-        <v>259.0600686093459</v>
+        <v>79.03333520449891</v>
       </c>
       <c r="E39" t="n">
-        <v>99.82261360389037</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>99.82261360389037</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>99.82261360389037</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
         <v>725.4530095217538</v>
@@ -7281,22 +7281,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U39" t="n">
-        <v>259.0600686093459</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V39" t="n">
-        <v>259.0600686093459</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W39" t="n">
-        <v>259.0600686093459</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="X39" t="n">
-        <v>259.0600686093459</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="Y39" t="n">
-        <v>259.0600686093459</v>
+        <v>253.4863644856259</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>136.0777814360265</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>257.7718183255803</v>
+        <v>709.2282658313147</v>
       </c>
       <c r="C41" t="n">
-        <v>257.7718183255803</v>
+        <v>470.373726982556</v>
       </c>
       <c r="D41" t="n">
-        <v>257.7718183255803</v>
+        <v>470.373726982556</v>
       </c>
       <c r="E41" t="n">
-        <v>257.7718183255803</v>
+        <v>470.373726982556</v>
       </c>
       <c r="F41" t="n">
-        <v>257.7718183255803</v>
+        <v>470.373726982556</v>
       </c>
       <c r="G41" t="n">
-        <v>257.7718183255803</v>
+        <v>470.373726982556</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>231.5191881337974</v>
       </c>
       <c r="I41" t="n">
         <v>18.91727947682168</v>
@@ -7430,31 +7430,31 @@
         <v>945.8639738410842</v>
       </c>
       <c r="Q41" t="n">
-        <v>945.8639738410842</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="R41" t="n">
-        <v>945.8639738410842</v>
+        <v>784.3894110575544</v>
       </c>
       <c r="S41" t="n">
-        <v>945.8639738410842</v>
+        <v>784.3894110575544</v>
       </c>
       <c r="T41" t="n">
-        <v>945.8639738410842</v>
+        <v>784.3894110575544</v>
       </c>
       <c r="U41" t="n">
-        <v>945.8639738410842</v>
+        <v>784.3894110575544</v>
       </c>
       <c r="V41" t="n">
-        <v>945.8639738410842</v>
+        <v>784.3894110575544</v>
       </c>
       <c r="W41" t="n">
-        <v>945.8639738410842</v>
+        <v>784.3894110575544</v>
       </c>
       <c r="X41" t="n">
-        <v>735.4808960230977</v>
+        <v>784.3894110575544</v>
       </c>
       <c r="Y41" t="n">
-        <v>496.626357174339</v>
+        <v>784.3894110575544</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7491,19 @@
         <v>18.91727947682168</v>
       </c>
       <c r="K42" t="n">
-        <v>18.91727947682168</v>
+        <v>144.2748395346591</v>
       </c>
       <c r="L42" t="n">
-        <v>248.8803853451708</v>
+        <v>374.2379454030082</v>
       </c>
       <c r="M42" t="n">
-        <v>477.6613067897475</v>
+        <v>529.119162702065</v>
       </c>
       <c r="N42" t="n">
-        <v>711.7626403154159</v>
+        <v>529.119162702065</v>
       </c>
       <c r="O42" t="n">
-        <v>945.8639738410842</v>
+        <v>763.2204962277333</v>
       </c>
       <c r="P42" t="n">
         <v>945.8639738410842</v>
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.166710156947247</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C44" t="n">
-        <v>3.166710156947247</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D44" t="n">
-        <v>3.166710156947247</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E44" t="n">
-        <v>3.166710156947247</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F44" t="n">
-        <v>3.166710156947247</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H44" t="n">
         <v>3.166710156947247</v>
@@ -7652,16 +7652,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="L44" t="n">
-        <v>40.77139327069581</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M44" t="n">
+        <v>42.35474834916943</v>
+      </c>
+      <c r="N44" t="n">
         <v>79.95943146291799</v>
       </c>
-      <c r="N44" t="n">
+      <c r="O44" t="n">
         <v>119.1474696551402</v>
-      </c>
-      <c r="O44" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="P44" t="n">
         <v>158.3355078473624</v>
@@ -7670,28 +7670,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R44" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S44" t="n">
         <v>118.3517937444931</v>
       </c>
       <c r="T44" t="n">
+        <v>118.3517937444931</v>
+      </c>
+      <c r="U44" t="n">
+        <v>118.3517937444931</v>
+      </c>
+      <c r="V44" t="n">
         <v>78.36807964162378</v>
       </c>
-      <c r="U44" t="n">
-        <v>43.15042425981653</v>
-      </c>
-      <c r="V44" t="n">
-        <v>43.15042425981653</v>
-      </c>
       <c r="W44" t="n">
-        <v>43.15042425981653</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="X44" t="n">
-        <v>43.15042425981653</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="Y44" t="n">
-        <v>43.15042425981653</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="45">
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C45" t="n">
         <v>3.166710156947247</v>
@@ -7728,49 +7728,49 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K45" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L45" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M45" t="n">
-        <v>42.35474834916943</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N45" t="n">
-        <v>42.35474834916943</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O45" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P45" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q45" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R45" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="S45" t="n">
         <v>118.3517937444931</v>
-      </c>
-      <c r="S45" t="n">
-        <v>78.36807964162378</v>
       </c>
       <c r="T45" t="n">
         <v>78.36807964162378</v>
       </c>
       <c r="U45" t="n">
-        <v>78.36807964162378</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="V45" t="n">
-        <v>78.36807964162378</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W45" t="n">
-        <v>78.36807964162378</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X45" t="n">
-        <v>78.36807964162378</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y45" t="n">
-        <v>78.36807964162378</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="46">
@@ -7834,22 +7834,22 @@
         <v>93.21247408113457</v>
       </c>
       <c r="T46" t="n">
-        <v>53.22875997826529</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="U46" t="n">
         <v>53.22875997826529</v>
       </c>
       <c r="V46" t="n">
-        <v>53.22875997826529</v>
+        <v>13.245045875396</v>
       </c>
       <c r="W46" t="n">
-        <v>53.22875997826529</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X46" t="n">
-        <v>53.22875997826529</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y46" t="n">
-        <v>13.245045875396</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7979,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N2" t="n">
-        <v>267.3975919943167</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O2" t="n">
         <v>269.6820883835273</v>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O3" t="n">
         <v>182.180121406285</v>
@@ -8076,7 +8076,7 @@
         <v>173.5582843761708</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8228,10 +8228,10 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P5" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>175.8259673720848</v>
       </c>
       <c r="L6" t="n">
-        <v>176.5389081776</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8313,7 +8313,7 @@
         <v>173.5582843761708</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,19 +8453,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>258.0743794427063</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L8" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O8" t="n">
-        <v>269.6820883835273</v>
+        <v>268.0827398194126</v>
       </c>
       <c r="P8" t="n">
         <v>270.8168727171101</v>
@@ -8535,22 +8535,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M9" t="n">
         <v>180.1185623197441</v>
       </c>
       <c r="N9" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>182.180121406285</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q9" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,13 +8693,13 @@
         <v>259.6737280068211</v>
       </c>
       <c r="L11" t="n">
-        <v>275.3502919318278</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M11" t="n">
-        <v>268.3307616249986</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O11" t="n">
         <v>269.6820883835273</v>
@@ -8769,19 +8769,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N12" t="n">
-        <v>169.3262404810591</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O12" t="n">
-        <v>182.180121406285</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P12" t="n">
         <v>173.5582843761708</v>
@@ -8930,10 +8930,10 @@
         <v>259.6737280068211</v>
       </c>
       <c r="L14" t="n">
-        <v>273.750943367713</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
@@ -8942,7 +8942,7 @@
         <v>269.6820883835273</v>
       </c>
       <c r="P14" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9012,10 +9012,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N15" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>182.180121406285</v>
@@ -9164,19 +9164,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2220234242092</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M17" t="n">
-        <v>272.6952875305729</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O17" t="n">
-        <v>274.2303838009153</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
         <v>275.3651681344982</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M18" t="n">
-        <v>184.4830882253185</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N18" t="n">
         <v>175.4738844625619</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -9495,10 +9495,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,13 +9720,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9969,10 +9969,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10434,7 +10434,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>303.312501347746</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,10 +10668,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10680,10 +10680,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,7 +10911,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>244.7225752110828</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11139,22 +11139,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>373.2258737650251</v>
+        <v>298.5797079614696</v>
       </c>
       <c r="N42" t="n">
-        <v>367.8077055436044</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>379.0622379047155</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11300,19 +11300,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>273.750943367713</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
         <v>269.9301101891133</v>
       </c>
       <c r="N44" t="n">
-        <v>268.9969405584315</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O44" t="n">
         <v>269.6820883835273</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O45" t="n">
-        <v>180.5807728421703</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P45" t="n">
         <v>173.5582843761708</v>
       </c>
       <c r="Q45" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22592,28 +22592,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>115.0036391131605</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>188.2303707361422</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>288.1683815082943</v>
       </c>
       <c r="W2" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="3">
@@ -22623,19 +22623,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>112.5795867366496</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S3" t="n">
         <v>132.0992941419972</v>
@@ -22686,7 +22686,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>216.8295043329304</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22717,7 +22717,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>128.4071023966182</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
         <v>122.643295545599</v>
@@ -22726,10 +22726,10 @@
         <v>115.8665979654177</v>
       </c>
       <c r="J4" t="n">
-        <v>83.3816277554085</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>15.01338019972509</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,7 +22744,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22844,10 +22844,10 @@
         <v>292.8867796421457</v>
       </c>
       <c r="W5" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y5" t="n">
         <v>346.654061694213</v>
@@ -22860,10 +22860,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22908,13 +22908,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>165.2992498668324</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22923,13 +22923,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X6" t="n">
-        <v>170.9075063754883</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22954,10 +22954,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>158.0134269971945</v>
       </c>
       <c r="H7" t="n">
-        <v>134.9352350102176</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I7" t="n">
         <v>115.8665979654177</v>
@@ -22966,7 +22966,7 @@
         <v>53.77530315483219</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23018,13 +23018,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>315.0991646588424</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23042,7 +23042,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,16 +23063,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>210.1703593052995</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23084,10 +23084,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>334.8656218504798</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23100,13 +23100,13 @@
         <v>126.9493066880268</v>
       </c>
       <c r="C9" t="n">
-        <v>137.8430201603266</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23115,7 +23115,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>77.36996540850728</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23191,10 +23191,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>158.0134269971945</v>
       </c>
       <c r="H10" t="n">
-        <v>134.9352350102176</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I10" t="n">
         <v>115.8665979654177</v>
@@ -23203,7 +23203,7 @@
         <v>53.77530315483219</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23264,10 +23264,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>342.3464931104212</v>
       </c>
       <c r="F11" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23276,7 +23276,7 @@
         <v>299.8909251539266</v>
       </c>
       <c r="I11" t="n">
-        <v>170.8920126085653</v>
+        <v>175.6104107424167</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23318,7 +23318,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>314.3754898894238</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23346,10 +23346,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>110.9503248916526</v>
       </c>
       <c r="G12" t="n">
-        <v>102.4780383352215</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H12" t="n">
         <v>72.65156727465587</v>
@@ -23358,7 +23358,7 @@
         <v>49.81275588957449</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>140.2481032200967</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>127.6629441367872</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23431,16 +23431,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>12.29193946461858</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>215.7321030277729</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>179.0007763902542</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>342.3464931104212</v>
       </c>
       <c r="F14" t="n">
         <v>367.2921687798708</v>
@@ -23510,10 +23510,10 @@
         <v>375.7188605532945</v>
       </c>
       <c r="H14" t="n">
-        <v>299.8909251539266</v>
+        <v>304.609323287778</v>
       </c>
       <c r="I14" t="n">
-        <v>175.6104107424167</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23580,7 +23580,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>123.5261929536696</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>105.4853354315433</v>
@@ -23592,10 +23592,10 @@
         <v>72.65156727465587</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>54.53115402342591</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>158.0134269971945</v>
       </c>
       <c r="H16" t="n">
-        <v>134.9352350102176</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I16" t="n">
         <v>115.8665979654177</v>
@@ -23677,7 +23677,7 @@
         <v>53.77530315483219</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>362.7438733624829</v>
+        <v>379.9537176646994</v>
       </c>
       <c r="G17" t="n">
         <v>371.1705651359065</v>
@@ -23750,10 +23750,10 @@
         <v>295.3426297365386</v>
       </c>
       <c r="I17" t="n">
-        <v>171.6042721387814</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23820,19 +23820,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>74.11041813112978</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,16 +23856,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>187.0697646493503</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>104.2327805547648</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23929,13 +23929,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S19" t="n">
         <v>179.8844256577437</v>
@@ -23944,7 +23944,7 @@
         <v>183.8134170490529</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>285.5285789088086</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,25 +23966,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24023,7 +24023,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24057,19 +24057,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>86.62062847585095</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,7 +24099,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24111,10 +24111,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>34.91942896372123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24175,7 +24175,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,16 +24212,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>344.9587297138598</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,16 +24248,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24266,7 +24266,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24291,7 +24291,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24300,13 +24300,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,25 +24330,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>135.1324489844707</v>
       </c>
       <c r="X24" t="n">
-        <v>16.10061421062355</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>333.4992862499586</v>
       </c>
       <c r="E26" t="n">
         <v>140.9160811946027</v>
@@ -24455,10 +24455,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,16 +24485,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24506,7 +24506,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24537,13 +24537,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>80.62729319583215</v>
       </c>
       <c r="I27" t="n">
-        <v>73.60797993369285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24576,13 +24576,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,7 +24680,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>344.0891364002832</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,7 +24689,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>206.5399494528818</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24728,19 +24728,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>128.71681180081</v>
@@ -24762,25 +24762,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>19.14396865047368</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>65.33315660464294</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24813,10 +24813,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24883,10 +24883,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24920,7 +24920,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,7 +24929,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>98.46051323810809</v>
@@ -24974,16 +24974,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24999,25 +24999,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>36.25107279319244</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25047,10 +25047,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>122.6426126254285</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25123,13 +25123,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25154,13 +25154,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>354.079835614828</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25169,7 +25169,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25202,19 +25202,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>87.20632401537665</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25239,16 +25239,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>81.8478496574635</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25281,7 +25281,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25293,13 +25293,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25315,7 +25315,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>101.5905486845387</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25354,7 +25354,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25366,7 +25366,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,10 +25388,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>152.9875061275654</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25403,7 +25403,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25436,13 +25436,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25454,10 +25454,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,13 +25470,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>99.23700160831548</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25485,13 +25485,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>32.49938844775559</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,7 +25521,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25567,13 +25567,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,10 +25625,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>146.2678482032095</v>
+        <v>308.3243078895033</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>128.8068983107365</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25646,7 +25646,7 @@
         <v>103.0088086554961</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25670,10 +25670,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25691,10 +25691,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>161.4518536386624</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>149.7719451957825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25880,7 +25880,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>304.609323287778</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25910,22 +25910,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S44" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>216.4801740798473</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25941,10 +25941,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>137.8430201603266</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25989,19 +25989,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>132.0992941419972</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>197.9351083214361</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>169.854427820673</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26074,22 +26074,22 @@
         <v>184.4327210751317</v>
       </c>
       <c r="T46" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>246.7351523946503</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>276.5454459753267</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>179.0007763902542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355268.3982687963</v>
+        <v>355268.3982687964</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355268.3982687963</v>
+        <v>355268.3982687966</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355268.3982687964</v>
+        <v>355268.3982687963</v>
       </c>
     </row>
   </sheetData>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59211.39971146601</v>
+        <v>59211.39971146602</v>
       </c>
       <c r="C2" t="n">
-        <v>59211.39971146602</v>
+        <v>59211.39971146597</v>
       </c>
       <c r="D2" t="n">
-        <v>59211.39971146602</v>
+        <v>59211.39971146599</v>
       </c>
       <c r="E2" t="n">
         <v>59211.39971146599</v>
       </c>
       <c r="F2" t="n">
-        <v>59211.39971146602</v>
+        <v>59211.39971146599</v>
       </c>
       <c r="G2" t="n">
         <v>59776.50267559939</v>
       </c>
       <c r="H2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566616</v>
       </c>
       <c r="I2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="J2" t="n">
-        <v>83080.33626566619</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="K2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="L2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566616</v>
       </c>
       <c r="M2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="N2" t="n">
-        <v>83080.33626566619</v>
+        <v>83080.33626566616</v>
       </c>
       <c r="O2" t="n">
         <v>82541.98000756433</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.4675990829</v>
+        <v>13265.46759908291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>323.0703052928914</v>
+        <v>33.41106180436364</v>
       </c>
       <c r="C4" t="n">
-        <v>323.0703052928914</v>
+        <v>33.41106180436364</v>
       </c>
       <c r="D4" t="n">
-        <v>323.0703052928914</v>
+        <v>33.41106180436364</v>
       </c>
       <c r="E4" t="n">
-        <v>323.0703052928914</v>
+        <v>33.41106180436363</v>
       </c>
       <c r="F4" t="n">
-        <v>323.0703052928914</v>
+        <v>33.41106180436364</v>
       </c>
       <c r="G4" t="n">
-        <v>329.3450829705341</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="H4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>582.1278819469393</v>
+        <v>176.2367752791008</v>
       </c>
       <c r="P4" t="n">
-        <v>323.0703052928914</v>
+        <v>33.41106180436364</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9588.5620878103</v>
+        <v>9878.221331298839</v>
       </c>
       <c r="C6" t="n">
-        <v>22854.02968689322</v>
+        <v>23143.6889303817</v>
       </c>
       <c r="D6" t="n">
-        <v>22854.02968689321</v>
+        <v>23143.68893038172</v>
       </c>
       <c r="E6" t="n">
-        <v>56481.62968689319</v>
+        <v>56771.28893038171</v>
       </c>
       <c r="F6" t="n">
-        <v>56481.62968689322</v>
+        <v>56771.28893038171</v>
       </c>
       <c r="G6" t="n">
-        <v>55517.30196249697</v>
+        <v>55809.77652260324</v>
       </c>
       <c r="H6" t="n">
-        <v>14717.99486143226</v>
+        <v>15126.56803387549</v>
       </c>
       <c r="I6" t="n">
-        <v>67838.56183175725</v>
+        <v>68247.13500420054</v>
       </c>
       <c r="J6" t="n">
-        <v>57481.67792795345</v>
+        <v>57890.25110039669</v>
       </c>
       <c r="K6" t="n">
-        <v>67838.56183175725</v>
+        <v>68247.13500420054</v>
       </c>
       <c r="L6" t="n">
-        <v>67838.56183175728</v>
+        <v>68247.13500420052</v>
       </c>
       <c r="M6" t="n">
-        <v>67838.56183175728</v>
+        <v>68247.13500420054</v>
       </c>
       <c r="N6" t="n">
-        <v>67838.56183175727</v>
+        <v>68247.13500420052</v>
       </c>
       <c r="O6" t="n">
-        <v>67582.71972323291</v>
+        <v>67988.61082990075</v>
       </c>
       <c r="P6" t="n">
-        <v>56481.62968689321</v>
+        <v>56771.28893038175</v>
       </c>
     </row>
   </sheetData>
@@ -34699,16 +34699,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="N2" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>37.98452839772582</v>
       </c>
       <c r="O2" t="n">
         <v>39.58387696184059</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>39.58387696184059</v>
@@ -34796,7 +34796,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L6" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="O8" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>39.58387696184059</v>
       </c>
       <c r="P8" t="n">
         <v>39.58387696184059</v>
@@ -35255,22 +35255,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M9" t="n">
         <v>37.98452839772582</v>
       </c>
       <c r="N9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,13 +35413,13 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L11" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="M11" t="n">
-        <v>37.98452839772582</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>39.58387696184059</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
       <c r="N12" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="O12" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="O12" t="n">
-        <v>39.58387696184059</v>
       </c>
       <c r="P12" t="n">
         <v>39.58387696184059</v>
@@ -35650,10 +35650,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L14" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="M14" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="P14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35732,10 +35732,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N15" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>39.58387696184059</v>
@@ -35884,19 +35884,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>42.34905430330018</v>
+      </c>
+      <c r="M17" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>42.34905430330018</v>
-      </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>44.13217237922859</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
       <c r="M18" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N18" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,10 +36215,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36689,10 +36689,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>161.1784674257276</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37400,10 +37400,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37631,7 +37631,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>113.3808631277494</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>231.0918398430068</v>
+        <v>156.4456740394513</v>
       </c>
       <c r="N42" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>236.4659934602711</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38020,19 +38020,19 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="N44" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O44" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="N45" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
       <c r="O45" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P45" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376800.6061809954</v>
+        <v>373609.6494672063</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221766</v>
+        <v>2114249.189782367</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179436</v>
+        <v>19492207.609564</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4901378.246697891</v>
+        <v>5116643.000488906</v>
       </c>
     </row>
     <row r="11">
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W3" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -832,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
-        <v>7.256111626157765</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>34.86547882798917</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="6">
@@ -1020,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S6" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T6" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1066,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>39.58387696184059</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1154,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>12.92549025883184</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1227,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1275,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="10">
@@ -1303,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>39.58387696184059</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1458,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1500,13 +1502,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1582,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X13" t="n">
-        <v>9.977552361264268</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1695,16 +1697,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1777,19 +1779,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>39.58387696184059</v>
+        <v>19.9316902659215</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>26.92232807701203</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>44.13217237922859</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1932,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1989,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
     </row>
     <row r="19">
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2090,64 +2092,64 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,25 +2162,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>87.11878864677688</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>2.776004375564122</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2211,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,7 +2320,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2330,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2360,16 +2362,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2381,7 +2383,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2412,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2451,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>164.3627140900143</v>
       </c>
       <c r="W24" t="n">
-        <v>116.5625341764489</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2482,49 +2484,49 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>21.18375537072436</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>123.234319899374</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2649,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>31.60815104066432</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -2694,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2801,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2813,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2843,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>241.0142888776591</v>
@@ -2874,25 +2876,25 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>93.09147558602278</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>51.46236366792047</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3035,67 +3037,67 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3111,19 +3113,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>121.3940076622085</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>70.64856914772001</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>11.19305615617957</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3287,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3314,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
@@ -3342,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79.32685963449069</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,13 +3362,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>56.91690033700354</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3475,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3512,14 +3514,14 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
@@ -3548,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3588,10 +3590,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>58.40807884708546</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1.667423870585606</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3603,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>74.40953377397729</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3755,13 +3757,13 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>136.2868555448613</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>89.14450579973429</v>
       </c>
     </row>
     <row r="43">
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4019,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>153.1835637471323</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4074,10 +4076,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,16 +4106,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>39.58387696184059</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>39.58387696184059</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>9.977552361264268</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>3.166710156947247</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>40.77139327069581</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N2" t="n">
-        <v>79.95943146291799</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T2" t="n">
-        <v>123.1178524655551</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U2" t="n">
-        <v>123.1178524655551</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V2" t="n">
-        <v>83.13413836268582</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W2" t="n">
-        <v>83.13413836268582</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X2" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C3" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D3" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E3" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M3" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N3" t="n">
-        <v>79.95943146291799</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O3" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P3" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>78.36807964162378</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T3" t="n">
-        <v>78.36807964162378</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U3" t="n">
-        <v>78.36807964162378</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V3" t="n">
-        <v>78.36807964162378</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W3" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X3" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y3" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H4" t="n">
-        <v>90.46354404567346</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="I4" t="n">
-        <v>50.47982994280417</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="J4" t="n">
-        <v>10.49611583993489</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M5" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N5" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V5" t="n">
-        <v>123.1178524655551</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W5" t="n">
-        <v>123.1178524655551</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X5" t="n">
-        <v>83.13413836268582</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y5" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M6" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N6" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O6" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S6" t="n">
-        <v>78.36807964162378</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T6" t="n">
-        <v>43.15042425981653</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U6" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V6" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G7" t="n">
-        <v>123.1178524655551</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H7" t="n">
-        <v>83.13413836268582</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I7" t="n">
-        <v>43.15042425981653</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J7" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55.22041350689989</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C8" t="n">
-        <v>55.22041350689989</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>42.35474834916943</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M8" t="n">
-        <v>42.35474834916943</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N8" t="n">
-        <v>81.54278654139161</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O8" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S8" t="n">
-        <v>68.2764642733967</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T8" t="n">
-        <v>55.22041350689989</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U8" t="n">
-        <v>55.22041350689989</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V8" t="n">
-        <v>55.22041350689989</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W8" t="n">
-        <v>55.22041350689989</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X8" t="n">
-        <v>55.22041350689989</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y8" t="n">
-        <v>55.22041350689989</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78.36807964162378</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C9" t="n">
-        <v>38.38436553875449</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>42.35474834916943</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M9" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N9" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O9" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P9" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X9" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y9" t="n">
-        <v>118.3517937444931</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G10" t="n">
-        <v>123.1178524655551</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H10" t="n">
-        <v>83.13413836268582</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I10" t="n">
-        <v>43.15042425981653</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J10" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C11" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D11" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E11" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F11" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G11" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H11" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L11" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M11" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N11" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O11" t="n">
-        <v>158.3355078473624</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S11" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T11" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U11" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V11" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W11" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X11" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y11" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F12" t="n">
-        <v>123.8719851183408</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>83.88827101547153</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>43.90455691260225</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>3.166710156947247</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L12" t="n">
-        <v>3.166710156947247</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M12" t="n">
-        <v>42.35474834916943</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N12" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V12" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W12" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X12" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y12" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U13" t="n">
-        <v>133.1961881840039</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V13" t="n">
-        <v>133.1961881840039</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W13" t="n">
-        <v>133.1961881840039</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X13" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y13" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C14" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E14" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F14" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G14" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L14" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M14" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N14" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O14" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T14" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U14" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V14" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W14" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X14" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y14" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L15" t="n">
-        <v>42.35474834916943</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M15" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N15" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S15" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T15" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="C16" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="D16" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="E16" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="F16" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="G16" t="n">
-        <v>123.1178524655551</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="H16" t="n">
-        <v>83.13413836268582</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="I16" t="n">
-        <v>43.15042425981653</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="J16" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.1961881840039</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S16" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="T16" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="U16" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="V16" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="W16" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="X16" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>149.3344187320537</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>104.756466833843</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>60.17851493563234</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
-        <v>15.60056303742164</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>45.45613755060546</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>90.91227510121089</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>134.6031257566472</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>176.5286895169144</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>176.5286895169144</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>176.5286895169144</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>176.5286895169144</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X18" t="n">
-        <v>176.5286895169144</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y18" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>4.329008585976936</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>720.6083788665362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C20" t="n">
-        <v>720.6083788665362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D20" t="n">
-        <v>720.6083788665362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E20" t="n">
-        <v>720.6083788665362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F20" t="n">
-        <v>477.1596022224361</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G20" t="n">
-        <v>233.7108255783361</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5779,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U20" t="n">
-        <v>720.6083788665362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>310.6614854603483</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="C21" t="n">
-        <v>136.2084561792213</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="D21" t="n">
-        <v>136.2084561792213</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E21" t="n">
-        <v>136.2084561792213</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F21" t="n">
-        <v>136.2084561792213</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G21" t="n">
-        <v>136.2084561792213</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>22.83932058680058</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5832,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>383.2428491569326</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>621.8469951458151</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
-        <v>860.4511411346975</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>518.4217842253022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X21" t="n">
-        <v>518.4217842253022</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y21" t="n">
-        <v>310.6614854603483</v>
+        <v>756.2056553051034</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>90.33569644483418</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C23" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>333.7844730889342</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>333.7844730889342</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
-        <v>333.7844730889342</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>382.9414955037181</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C24" t="n">
-        <v>382.9414955037181</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D24" t="n">
-        <v>382.9414955037181</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,19 +6074,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6099,19 +6101,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>798.0342119853692</v>
       </c>
       <c r="W24" t="n">
-        <v>382.9414955037181</v>
+        <v>554.5854353412691</v>
       </c>
       <c r="X24" t="n">
-        <v>382.9414955037181</v>
+        <v>346.7339351357363</v>
       </c>
       <c r="Y24" t="n">
-        <v>382.9414955037181</v>
+        <v>346.7339351357363</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>527.5764290961142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>527.5764290961142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
         <v>262.7299197543128</v>
@@ -6215,7 +6217,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T26" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>51.20856840381305</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C27" t="n">
-        <v>51.20856840381305</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>51.20856840381305</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>51.20856840381305</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>51.20856840381305</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>51.20856840381305</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,43 +6314,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>259.0600686093459</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V27" t="n">
-        <v>259.0600686093459</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W27" t="n">
-        <v>259.0600686093459</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X27" t="n">
-        <v>51.20856840381305</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="Y27" t="n">
-        <v>51.20856840381305</v>
+        <v>318.9674160535941</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6493,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>353.3011080883284</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C30" t="n">
-        <v>353.3011080883284</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D30" t="n">
-        <v>204.3666984270771</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E30" t="n">
-        <v>204.3666984270771</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F30" t="n">
-        <v>204.3666984270771</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>204.3666984270771</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N30" t="n">
         <v>473.4149733950735</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>637.4880959910388</v>
       </c>
       <c r="U30" t="n">
-        <v>588.4532163200711</v>
+        <v>409.2644777274278</v>
       </c>
       <c r="V30" t="n">
-        <v>353.3011080883284</v>
+        <v>409.2644777274278</v>
       </c>
       <c r="W30" t="n">
-        <v>353.3011080883284</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="X30" t="n">
-        <v>353.3011080883284</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="Y30" t="n">
-        <v>353.3011080883284</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="31">
@@ -6643,10 +6645,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
         <v>19.28114311021272</v>
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F32" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>540.5358718529395</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6780,16 +6782,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O33" t="n">
         <v>712.019119383956</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>689.4702815141908</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W33" t="n">
-        <v>689.4702815141908</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X33" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6880,13 +6882,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
         <v>829.5248650203655</v>
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>30.58726043968704</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6964,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>274.0360370837871</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X35" t="n">
-        <v>30.58726043968704</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y35" t="n">
-        <v>30.58726043968704</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>502.6601697108322</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="C36" t="n">
-        <v>328.2071404297052</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="D36" t="n">
-        <v>179.2727307684539</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7022,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W36" t="n">
-        <v>790.6398109613051</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X36" t="n">
-        <v>582.7883107557723</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y36" t="n">
-        <v>582.7883107557723</v>
+        <v>76.77296163243852</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D38" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="E38" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="F38" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="G38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="G38" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>253.4863644856259</v>
+        <v>354.6558939327403</v>
       </c>
       <c r="C39" t="n">
-        <v>79.03333520449891</v>
+        <v>180.2028646516133</v>
       </c>
       <c r="D39" t="n">
-        <v>79.03333520449891</v>
+        <v>180.2028646516133</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>20.96540964615778</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>461.2466632505798</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V39" t="n">
-        <v>461.2466632505798</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W39" t="n">
-        <v>461.2466632505798</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X39" t="n">
-        <v>461.2466632505798</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="Y39" t="n">
-        <v>253.4863644856259</v>
+        <v>354.6558939327403</v>
       </c>
     </row>
     <row r="40">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>709.2282658313147</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C41" t="n">
-        <v>470.373726982556</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D41" t="n">
-        <v>470.373726982556</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E41" t="n">
-        <v>470.373726982556</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F41" t="n">
-        <v>470.373726982556</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G41" t="n">
-        <v>470.373726982556</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H41" t="n">
-        <v>231.5191881337974</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>104.1029673515831</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>284.1788189362417</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>501.1544461991459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>707.0089684063852</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>856.2039185490332</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>784.3894110575544</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>784.3894110575544</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>784.3894110575544</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>784.3894110575544</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>784.3894110575544</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>784.3894110575544</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>784.3894110575544</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y41" t="n">
-        <v>784.3894110575544</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>331.0337992073036</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C42" t="n">
-        <v>156.5807699261765</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.2748395346591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.2379454030082</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>529.119162702065</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>529.119162702065</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O42" t="n">
-        <v>763.2204962277333</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>945.8639738410842</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>945.8639738410842</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>945.8639738410842</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W42" t="n">
-        <v>707.0094349923255</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X42" t="n">
-        <v>707.0094349923255</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y42" t="n">
-        <v>499.2491362273716</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>38.38436553875449</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C44" t="n">
-        <v>38.38436553875449</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>38.38436553875449</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>38.38436553875449</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>38.38436553875449</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>38.38436553875449</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>3.166710156947247</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>3.166710156947247</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>42.35474834916943</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>79.95943146291799</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>119.1474696551402</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.3355078473624</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>118.3517937444931</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>118.3517937444931</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>118.3517937444931</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>118.3517937444931</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>78.36807964162378</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>38.38436553875449</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X44" t="n">
-        <v>38.38436553875449</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y44" t="n">
-        <v>38.38436553875449</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.166710156947247</v>
+        <v>433.7223438482202</v>
       </c>
       <c r="C45" t="n">
-        <v>3.166710156947247</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="D45" t="n">
-        <v>3.166710156947247</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E45" t="n">
-        <v>3.166710156947247</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F45" t="n">
-        <v>3.166710156947247</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G45" t="n">
-        <v>3.166710156947247</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H45" t="n">
-        <v>3.166710156947247</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>3.166710156947247</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>40.77139327069581</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>79.95943146291799</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O45" t="n">
-        <v>119.1474696551402</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>158.3355078473624</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>118.3517937444931</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>78.36807964162378</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U45" t="n">
-        <v>38.38436553875449</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V45" t="n">
-        <v>3.166710156947247</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W45" t="n">
-        <v>3.166710156947247</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X45" t="n">
-        <v>3.166710156947247</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y45" t="n">
-        <v>3.166710156947247</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>53.22875997826529</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>13.245045875396</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>268.9969405584315</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,19 +8218,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M5" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8295,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
@@ -8307,13 +8309,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P6" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
-        <v>268.9969405584315</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O8" t="n">
-        <v>268.0827398194126</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
-        <v>178.1382567417148</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>182.180121406285</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P9" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>273.750943367713</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O11" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>273.5820500585697</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M12" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>180.5807728421703</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P12" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>259.6737280068211</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L14" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M15" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>182.180121406285</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P15" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,19 +9245,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>175.4738844625619</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O18" t="n">
-        <v>184.9452987477446</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -9495,10 +9497,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>238.6269471880057</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,13 +9722,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M24" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>255.5148970497678</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10428,19 +10430,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10668,10 +10670,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>306.1360004134264</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>298.5797079614696</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>379.0622379047155</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>269.9301101891133</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>267.3975919943167</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>269.6820883835273</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>270.8168727171101</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>180.1185623197441</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>182.180121406285</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P45" t="n">
-        <v>173.5582843761708</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22592,28 +22594,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>115.0036391131605</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>184.2242321325068</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X2" t="n">
-        <v>330.1472237166284</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y2" t="n">
-        <v>346.654061694213</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="3">
@@ -22635,7 +22637,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22671,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>132.0992941419972</v>
+        <v>132.8115536722133</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W3" t="n">
-        <v>216.8295043329304</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22720,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>122.643295545599</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I4" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J4" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K4" t="n">
-        <v>15.01338019972509</v>
+        <v>21.47904137820059</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22784,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>325.689014809167</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22841,16 +22843,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>292.8867796421457</v>
+        <v>288.8806410385104</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X5" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>346.654061694213</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="6">
@@ -22908,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>60.57395719080255</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S6" t="n">
-        <v>132.0992941419972</v>
+        <v>132.8115536722133</v>
       </c>
       <c r="T6" t="n">
-        <v>165.2992498668324</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>212.111106199079</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22954,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>158.0134269971945</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>122.643295545599</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I7" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J7" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23042,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,16 +23065,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>210.1703593052995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23081,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>310.3693512857885</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="9">
@@ -23097,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>126.9493066880268</v>
+        <v>122.4010112706387</v>
       </c>
       <c r="C9" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>108.5734481330142</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23115,7 +23117,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>77.36996540850728</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23163,10 +23165,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y9" t="n">
-        <v>166.0988188154638</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="10">
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>158.0134269971945</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>122.643295545599</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I10" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J10" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23264,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23273,10 +23275,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>175.6104107424167</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23303,10 +23305,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>170.1484521546208</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23315,7 +23317,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23324,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="12">
@@ -23337,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>133.8368815566912</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23346,19 +23348,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23388,13 +23390,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>140.2481032200967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>127.6629441367872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23470,19 +23472,19 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>285.5285789088086</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X13" t="n">
-        <v>215.7321030277729</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y13" t="n">
-        <v>179.0007763902542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23498,19 +23500,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E14" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>304.609323287778</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23546,13 +23548,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>184.2242321325068</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23583,16 +23585,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>54.53115402342591</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>61.28621672101858</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,19 +23667,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>158.0134269971945</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>53.77530315483219</v>
+        <v>73.42748985075127</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>379.9537176646994</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>371.1705651359065</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>295.3426297365386</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>166.3437171911773</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23820,19 +23822,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>74.11041813112978</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23877,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>201.1021466825878</v>
       </c>
     </row>
     <row r="19">
@@ -23935,16 +23937,16 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>285.5285789088086</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23978,13 +23980,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>127.189416472325</v>
+        <v>318.2910467450428</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24017,13 +24019,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24048,25 +24050,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>60.32627691786188</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>86.62062847585095</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24099,7 +24101,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24108,13 +24110,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24175,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24206,7 +24208,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24218,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>344.9587297138598</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24248,16 +24250,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24269,7 +24271,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24300,13 +24302,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24339,16 +24341,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>68.43787305941095</v>
       </c>
       <c r="W24" t="n">
-        <v>135.1324489844707</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24370,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24412,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24440,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>333.4992862499586</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24488,13 +24490,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>43.29886375049335</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24537,13 +24539,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>80.62729319583215</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24582,10 +24584,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24646,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24689,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>206.5399494528818</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24701,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24731,16 +24733,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>128.71681180081</v>
@@ -24762,25 +24764,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>19.14396865047368</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>148.7023650269011</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24883,13 +24885,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24923,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24974,16 +24976,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24999,19 +25001,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>36.25107279319244</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25041,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>181.0464140131996</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25120,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>354.079835614828</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25175,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25202,19 +25204,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>158.8955716431281</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
@@ -25230,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>87.20632401537665</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25248,13 +25250,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>55.31854389949292</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,25 +25283,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25363,10 +25365,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25400,13 +25402,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25436,13 +25438,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>128.6853625704253</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25476,10 +25478,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>99.23700160831548</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>143.4017885227983</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25491,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>308.3243078895033</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>128.8068983107365</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25643,13 +25645,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>103.0088086554961</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>20.13049249612121</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>11.15821001977744</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25761,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>116.5381899775701</v>
       </c>
     </row>
     <row r="43">
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25877,10 +25879,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>304.609323287778</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25922,16 +25924,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>13.34961990273501</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25962,10 +25964,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,16 +25994,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>132.0992941419972</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>160.580851732981</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>197.9351083214361</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26071,19 +26073,19 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>246.7351523946503</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>212.5537663619874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>276.5454459753267</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355268.3982687963</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355268.3982687964</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355268.3982687963</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355268.3982687966</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355268.3982687964</v>
+        <v>358659.0160535968</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495251.8800453863</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355268.3982687963</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59211.39971146602</v>
+        <v>59776.50267559939</v>
       </c>
       <c r="C2" t="n">
-        <v>59211.39971146597</v>
+        <v>59776.50267559938</v>
       </c>
       <c r="D2" t="n">
-        <v>59211.39971146599</v>
+        <v>59776.50267559939</v>
       </c>
       <c r="E2" t="n">
-        <v>59211.39971146599</v>
+        <v>59776.50267559938</v>
       </c>
       <c r="F2" t="n">
-        <v>59211.39971146599</v>
+        <v>59776.50267559937</v>
       </c>
       <c r="G2" t="n">
-        <v>59776.50267559939</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="H2" t="n">
-        <v>83080.33626566616</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="I2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="J2" t="n">
-        <v>83080.33626566615</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="K2" t="n">
+        <v>83080.33626566621</v>
+      </c>
+      <c r="L2" t="n">
         <v>83080.33626566618</v>
       </c>
-      <c r="L2" t="n">
-        <v>83080.33626566616</v>
-      </c>
       <c r="M2" t="n">
+        <v>83080.33626566619</v>
+      </c>
+      <c r="N2" t="n">
         <v>83080.33626566618</v>
       </c>
-      <c r="N2" t="n">
-        <v>83080.33626566616</v>
-      </c>
       <c r="O2" t="n">
-        <v>82541.98000756433</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="P2" t="n">
-        <v>59211.39971146602</v>
+        <v>83080.33626566621</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="C4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="D4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="E4" t="n">
-        <v>33.41106180436363</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="F4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="G4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
         <v>179.5324977039669</v>
@@ -26454,10 +26456,10 @@
         <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>176.2367752791008</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>33.41106180436364</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9878.221331298839</v>
+        <v>8639.090067833808</v>
       </c>
       <c r="C6" t="n">
-        <v>23143.6889303817</v>
+        <v>23428.79607207802</v>
       </c>
       <c r="D6" t="n">
-        <v>23143.68893038172</v>
+        <v>23428.79607207803</v>
       </c>
       <c r="E6" t="n">
-        <v>56771.28893038171</v>
+        <v>57056.39607207802</v>
       </c>
       <c r="F6" t="n">
-        <v>56771.28893038171</v>
+        <v>57056.39607207801</v>
       </c>
       <c r="G6" t="n">
-        <v>55809.77652260324</v>
+        <v>14284.70010372822</v>
       </c>
       <c r="H6" t="n">
-        <v>15126.56803387549</v>
+        <v>68247.13500420054</v>
       </c>
       <c r="I6" t="n">
         <v>68247.13500420054</v>
       </c>
       <c r="J6" t="n">
-        <v>57890.25110039669</v>
+        <v>56700.21689420965</v>
       </c>
       <c r="K6" t="n">
+        <v>68247.13500420057</v>
+      </c>
+      <c r="L6" t="n">
         <v>68247.13500420054</v>
       </c>
-      <c r="L6" t="n">
-        <v>68247.13500420052</v>
-      </c>
       <c r="M6" t="n">
+        <v>68247.13500420055</v>
+      </c>
+      <c r="N6" t="n">
         <v>68247.13500420054</v>
       </c>
-      <c r="N6" t="n">
-        <v>68247.13500420052</v>
-      </c>
       <c r="O6" t="n">
-        <v>67988.61082990075</v>
+        <v>20867.25678673678</v>
       </c>
       <c r="P6" t="n">
-        <v>56771.28893038175</v>
+        <v>68247.13500420057</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M5" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35015,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O8" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M15" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>44.13217237922859</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O18" t="n">
-        <v>42.34905430330016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36127,7 +36129,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,10 +36217,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>104.6525397736754</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,13 +36442,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M24" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,19 +36682,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>113.3808631277495</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37148,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37315,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37388,10 +37390,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>86.04614936844587</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>156.4456740394513</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>236.4659934602711</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>39.58387696184059</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>37.98452839772582</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>39.58387696184059</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>39.58387696184059</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>37.98452839772582</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>39.58387696184059</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P45" t="n">
-        <v>39.58387696184059</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373609.6494672063</v>
+        <v>266892.8685486213</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782367</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.609564</v>
+        <v>18548951.26311752</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5116643.000488906</v>
+        <v>5630847.647727954</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>44.13217237922859</v>
+        <v>37.14313633741891</v>
       </c>
       <c r="Y2" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
     </row>
     <row r="3">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -788,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W3" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>26.16190956546852</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="C5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -940,31 +940,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>38.87161743162455</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>6.128040921399936</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1071,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>23.06731618765125</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>44.13217237922859</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y11" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>44.13217237922859</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>44.13217237922859</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="15">
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>29.15234209992652</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>38.87161743162455</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>19.9316902659215</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1855,55 +1855,55 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -1985,13 +1985,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>238.3383404039074</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2125,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>220.2131257424249</v>
       </c>
     </row>
     <row r="21">
@@ -2165,22 +2165,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>87.11878864677688</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2216,13 +2216,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2317,73 +2317,73 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.1427070647978</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2453,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>164.3627140900143</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2599,13 +2599,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>62.4162677022923</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>123.234319899374</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>63.14223173826446</v>
       </c>
     </row>
     <row r="28">
@@ -2712,70 +2712,70 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,20 +2794,20 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
@@ -2836,28 +2836,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2921,22 +2921,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>51.46236366792047</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>220.2131257424249</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>65.1306020652372</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -3170,13 +3170,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>70.64856914772001</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3265,14 +3265,14 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
@@ -3286,10 +3286,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>232.8330857361503</v>
       </c>
       <c r="W35" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>56.91690033700354</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3404,16 +3404,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,49 +3517,49 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1.667423870585606</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>154.3943321032793</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3644,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3739,31 +3739,31 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>41.7314554634327</v>
       </c>
       <c r="I41" t="n">
-        <v>190.3453970742847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3875,10 +3875,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>89.14450579973429</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>153.1835637471323</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4076,10 +4076,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4109,19 +4109,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>47.22142444577459</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>90.91227510121089</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M2" t="n">
-        <v>134.6031257566472</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N2" t="n">
-        <v>176.5286895169144</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="O2" t="n">
-        <v>176.5286895169144</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>176.5286895169144</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="S2" t="n">
-        <v>176.5286895169144</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="T2" t="n">
-        <v>137.2644294849704</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="U2" t="n">
-        <v>137.2644294849704</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="V2" t="n">
-        <v>137.2644294849704</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="W2" t="n">
-        <v>92.68647758675968</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="X2" t="n">
-        <v>48.10852568854899</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>112.3871215328157</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.530573790338288</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="C3" t="n">
-        <v>3.530573790338288</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="D3" t="n">
-        <v>3.530573790338288</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="E3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>45.45613755060546</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="M3" t="n">
-        <v>45.45613755060546</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="N3" t="n">
-        <v>45.45613755060546</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O3" t="n">
-        <v>89.14698820604177</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>176.5286895169144</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>137.2644294849704</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>137.2644294849704</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U3" t="n">
-        <v>92.68647758675968</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V3" t="n">
-        <v>48.10852568854899</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>3.530573790338288</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="X3" t="n">
-        <v>3.530573790338288</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.530573790338288</v>
+        <v>51.89093722176946</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.062864280609</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="C4" t="n">
-        <v>138.062864280609</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="D4" t="n">
-        <v>138.062864280609</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="E4" t="n">
-        <v>138.062864280609</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="F4" t="n">
-        <v>138.062864280609</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="G4" t="n">
-        <v>138.062864280609</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="H4" t="n">
-        <v>93.48491238239833</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="I4" t="n">
-        <v>48.90696048418764</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="J4" t="n">
-        <v>4.329008585976936</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>106.8319505572413</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>146.0199887494634</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>189.7108394048997</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.062864280609</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R4" t="n">
-        <v>138.062864280609</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S4" t="n">
-        <v>138.062864280609</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T4" t="n">
-        <v>138.062864280609</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U4" t="n">
-        <v>138.062864280609</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V4" t="n">
-        <v>138.062864280609</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W4" t="n">
-        <v>138.062864280609</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X4" t="n">
-        <v>138.062864280609</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.062864280609</v>
+        <v>105.9439968277793</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>176.5286895169144</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>176.5286895169144</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U5" t="n">
-        <v>176.5286895169144</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V5" t="n">
-        <v>137.2644294849704</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="W5" t="n">
-        <v>92.68647758675968</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="X5" t="n">
-        <v>92.68647758675968</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="Y5" t="n">
-        <v>48.10852568854899</v>
+        <v>90.33569644483418</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.530573790338288</v>
+        <v>313.2932483084068</v>
       </c>
       <c r="C6" t="n">
-        <v>3.530573790338288</v>
+        <v>138.8402190272798</v>
       </c>
       <c r="D6" t="n">
-        <v>3.530573790338288</v>
+        <v>138.8402190272798</v>
       </c>
       <c r="E6" t="n">
-        <v>3.530573790338288</v>
+        <v>138.8402190272798</v>
       </c>
       <c r="F6" t="n">
-        <v>3.530573790338288</v>
+        <v>138.8402190272798</v>
       </c>
       <c r="G6" t="n">
-        <v>3.530573790338288</v>
+        <v>138.8402190272798</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>25.47108343485912</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>45.45613755060546</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>45.45613755060546</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>45.45613755060546</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
-        <v>89.14698820604177</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>92.68647758675968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>92.68647758675968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>48.10852568854899</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W6" t="n">
-        <v>3.530573790338288</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X6" t="n">
-        <v>3.530573790338288</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.530573790338288</v>
+        <v>313.2932483084068</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.062864280609</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>138.062864280609</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>138.062864280609</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T7" t="n">
-        <v>138.062864280609</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U7" t="n">
-        <v>138.062864280609</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V7" t="n">
-        <v>138.062864280609</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.530573790338288</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C8" t="n">
-        <v>3.530573790338288</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
-        <v>3.530573790338288</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E8" t="n">
-        <v>3.530573790338288</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F8" t="n">
-        <v>3.530573790338288</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>134.6031257566472</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>176.5286895169144</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>137.2644294849704</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>92.68647758675968</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>48.10852568854899</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42.79483382228227</v>
+        <v>217.7886244255914</v>
       </c>
       <c r="C9" t="n">
-        <v>42.79483382228227</v>
+        <v>43.33559514446435</v>
       </c>
       <c r="D9" t="n">
-        <v>3.530573790338288</v>
+        <v>43.33559514446435</v>
       </c>
       <c r="E9" t="n">
-        <v>3.530573790338288</v>
+        <v>43.33559514446435</v>
       </c>
       <c r="F9" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>90.91227510121089</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M9" t="n">
-        <v>90.91227510121089</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>90.91227510121089</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>176.5286895169144</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U9" t="n">
-        <v>176.5286895169144</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V9" t="n">
-        <v>176.5286895169144</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W9" t="n">
-        <v>176.5286895169144</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="X9" t="n">
-        <v>131.9507376187037</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="Y9" t="n">
-        <v>87.37278572049297</v>
+        <v>217.7886244255914</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>47.22142444577459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>90.91227510121089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>134.6031257566472</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>92.68647758675968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>92.68647758675968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>92.68647758675968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>48.10852568854899</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>42.79483382228227</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C12" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>45.45613755060546</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>89.14698820604177</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M12" t="n">
-        <v>89.14698820604177</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
-        <v>89.14698820604177</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>87.37278572049297</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V12" t="n">
-        <v>42.79483382228227</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W12" t="n">
-        <v>42.79483382228227</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X12" t="n">
-        <v>42.79483382228227</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y12" t="n">
-        <v>42.79483382228227</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.10852568854899</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>48.10852568854899</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>137.2644294849704</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U14" t="n">
-        <v>92.68647758675968</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V14" t="n">
-        <v>48.10852568854899</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W14" t="n">
-        <v>48.10852568854899</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X14" t="n">
-        <v>48.10852568854899</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y14" t="n">
-        <v>48.10852568854899</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.530573790338288</v>
+        <v>49.48208596494442</v>
       </c>
       <c r="C15" t="n">
-        <v>3.530573790338288</v>
+        <v>49.48208596494442</v>
       </c>
       <c r="D15" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E15" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F15" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>90.91227510121089</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>90.91227510121089</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N15" t="n">
-        <v>90.91227510121089</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>137.2644294849704</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>92.68647758675968</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>48.10852568854899</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U15" t="n">
-        <v>3.530573790338288</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V15" t="n">
-        <v>3.530573790338288</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W15" t="n">
-        <v>3.530573790338288</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="X15" t="n">
-        <v>3.530573790338288</v>
+        <v>217.6974229850125</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.530573790338288</v>
+        <v>217.6974229850125</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W18" t="n">
-        <v>23.90796037760316</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="X18" t="n">
-        <v>23.90796037760316</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
     </row>
     <row r="19">
@@ -5697,25 +5697,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>527.5764290961142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U20" t="n">
-        <v>527.5764290961142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V20" t="n">
-        <v>527.5764290961142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W20" t="n">
-        <v>527.5764290961142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X20" t="n">
-        <v>527.5764290961142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y20" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>756.2056553051034</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>756.2056553051034</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5834,19 +5834,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X21" t="n">
-        <v>756.2056553051034</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y21" t="n">
-        <v>756.2056553051034</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.7108255783361</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="Y23" t="n">
-        <v>477.1596022224361</v>
+        <v>82.32787816303323</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>934.6200776674061</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>934.6200776674061</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>934.6200776674061</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>706.3964594037951</v>
       </c>
       <c r="V24" t="n">
-        <v>798.0342119853692</v>
+        <v>471.2443511720524</v>
       </c>
       <c r="W24" t="n">
-        <v>554.5854353412691</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="X24" t="n">
-        <v>346.7339351357363</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y24" t="n">
-        <v>346.7339351357363</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I25" t="n">
         <v>19.28114311021272</v>
@@ -6174,25 +6174,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
         <v>262.7299197543128</v>
@@ -6247,10 +6247,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
         <v>749.627473042513</v>
@@ -6262,16 +6262,16 @@
         <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>194.4883050441255</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
         <v>20.03527576299844</v>
@@ -6341,16 +6341,16 @@
         <v>562.4161926976942</v>
       </c>
       <c r="V27" t="n">
-        <v>562.4161926976942</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W27" t="n">
-        <v>318.9674160535941</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X27" t="n">
-        <v>318.9674160535941</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y27" t="n">
-        <v>318.9674160535941</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6423,13 +6423,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6442,16 +6442,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6484,25 +6484,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V29" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
         <v>262.7299197543128</v>
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6545,13 +6545,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
         <v>473.4149733950735</v>
@@ -6569,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>637.4880959910388</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>409.2644777274278</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V30" t="n">
-        <v>409.2644777274278</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W30" t="n">
-        <v>165.8157010833278</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6651,7 +6651,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>710.516763498309</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C32" t="n">
-        <v>710.516763498309</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D32" t="n">
-        <v>710.516763498309</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E32" t="n">
-        <v>467.067986854209</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F32" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6730,22 +6730,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V32" t="n">
-        <v>710.516763498309</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W32" t="n">
-        <v>710.516763498309</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X32" t="n">
-        <v>710.516763498309</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y32" t="n">
-        <v>710.516763498309</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>249.2442489785619</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6809,19 +6809,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="U33" t="n">
-        <v>533.6469426057913</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V33" t="n">
-        <v>298.4948343740486</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W33" t="n">
-        <v>227.1326433157456</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
         <v>19.28114311021272</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>274.7999090013961</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C35" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D35" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E35" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6970,19 +6970,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W35" t="n">
-        <v>761.6974622895962</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X35" t="n">
-        <v>518.2486856454962</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y35" t="n">
-        <v>518.2486856454962</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7019,49 +7019,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V36" t="n">
-        <v>735.8335372470253</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W36" t="n">
-        <v>492.3847606029253</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X36" t="n">
-        <v>284.5332603973924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>354.6558939327403</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C39" t="n">
-        <v>180.2028646516133</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D39" t="n">
-        <v>180.2028646516133</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.96540964615778</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7259,16 +7259,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>621.8469951458151</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O39" t="n">
-        <v>860.4511411346975</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>808.103284699243</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>808.103284699243</v>
       </c>
       <c r="U39" t="n">
-        <v>562.4161926976942</v>
+        <v>579.8796664356321</v>
       </c>
       <c r="V39" t="n">
-        <v>562.4161926976942</v>
+        <v>579.8796664356321</v>
       </c>
       <c r="W39" t="n">
-        <v>562.4161926976942</v>
+        <v>336.430889791532</v>
       </c>
       <c r="X39" t="n">
-        <v>562.4161926976942</v>
+        <v>336.430889791532</v>
       </c>
       <c r="Y39" t="n">
-        <v>354.6558939327403</v>
+        <v>336.430889791532</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>467.067986854209</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C41" t="n">
-        <v>223.6192102101089</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D41" t="n">
-        <v>223.6192102101089</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="E41" t="n">
-        <v>223.6192102101089</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="F41" t="n">
-        <v>223.6192102101089</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="G41" t="n">
-        <v>223.6192102101089</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="H41" t="n">
-        <v>223.6192102101089</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7438,25 +7438,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W41" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X41" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y41" t="n">
-        <v>710.516763498309</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>194.4883050441255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V42" t="n">
-        <v>735.8335372470253</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W42" t="n">
-        <v>492.3847606029253</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X42" t="n">
-        <v>284.5332603973924</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y42" t="n">
-        <v>194.4883050441255</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7602,7 +7602,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
         <v>19.28114311021272</v>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
         <v>262.7299197543128</v>
@@ -7672,28 +7672,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W44" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X44" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>433.7223438482202</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>259.2693145670932</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7757,22 +7757,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U45" t="n">
-        <v>588.4532163200711</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V45" t="n">
-        <v>588.4532163200711</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W45" t="n">
-        <v>588.4532163200711</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X45" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y45" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7833,16 +7833,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>274.4784056065013</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>271.7621178998911</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>281.4486180473961</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>180.9034340831744</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
-        <v>186.728416823673</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>180.9034340831744</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>182.6865521591028</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>184.9452987477446</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>273.5820500585697</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>180.1904932776592</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>182.6865521591028</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>184.9452987477446</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>244.7225752110828</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9719,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N30" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>197.6503338623806</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10916,10 +10916,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P39" t="n">
-        <v>238.6269471880057</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O42" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O45" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22552,10 +22552,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>301.1705126107332</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>328.417841062312</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22600,7 +22600,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>184.2242321325068</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>325.5989282992405</v>
+        <v>332.5879643410501</v>
       </c>
       <c r="Y2" t="n">
-        <v>342.105766276825</v>
+        <v>332.7254096461039</v>
       </c>
     </row>
     <row r="3">
@@ -22634,7 +22634,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>110.5112449034372</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22676,22 +22676,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>132.8115536722133</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>188.6684147701967</v>
+        <v>179.2880581394755</v>
       </c>
       <c r="W3" t="n">
-        <v>207.562810781691</v>
+        <v>198.1824541509698</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>152.2604561935277</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22710,7 +22710,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>122.4535634527438</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22722,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>21.47904137820059</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>232.8065003465411</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22770,7 +22770,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1971263790874</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>312.3898338622054</v>
       </c>
       <c r="C5" t="n">
-        <v>321.1407193917789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>288.8806410385104</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22880,10 +22880,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>83.26859193001513</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>132.8115536722133</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>207.562810781691</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22959,16 +22959,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22986,7 +22986,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>338.601669284252</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>362.8771690273874</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,10 +23065,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23083,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>310.3693512857885</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>342.105766276825</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23099,19 +23099,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>122.4010112706387</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>108.5734481330142</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>122.0018962057326</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>161.6408128242489</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>161.5505233980758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23196,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23269,10 +23269,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23305,10 +23305,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>170.1484521546208</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23317,16 +23317,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>283.6200860909063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y11" t="n">
-        <v>342.105766276825</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>133.8368815566912</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23360,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>181.8092097017462</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>188.6684147701967</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23472,16 +23472,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>285.5285789088086</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>208.0054709445994</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W13" t="n">
-        <v>242.3908259573624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>181.5774830098086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5508692414544</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23548,13 +23548,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>184.2242321325068</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>207.2134805286079</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>283.6200860909063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="15">
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>118.2927234647122</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23597,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>61.28621672101858</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23676,10 +23676,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>73.42748985075127</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1612189979409</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>181.0016451065613</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23825,7 +23825,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23861,10 +23861,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23873,13 +23873,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>13.3566427570122</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>201.1021466825878</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23983,10 +23983,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>318.2910467450428</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>166.0248129136286</v>
       </c>
     </row>
     <row r="21">
@@ -24053,22 +24053,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>60.32627691786188</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>71.10541651401829</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24104,13 +24104,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24220,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>352.8864698128427</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24253,7 +24253,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24262,16 +24262,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24293,7 +24293,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>71.01512708784534</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24341,19 +24341,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>68.43787305941095</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24384,7 +24384,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J25" t="n">
         <v>93.35918011667277</v>
@@ -24414,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24487,13 +24487,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>146.6038018839531</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24502,13 +24502,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>43.29886375049335</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24581,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24590,7 +24590,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>142.5404640390399</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24694,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24724,28 +24724,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>275.3266899823873</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24770,7 +24770,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24809,22 +24809,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>148.7023650269011</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24891,10 +24891,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24925,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>186.6629199992865</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1801156868699</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24970,7 +24970,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -25049,7 +25049,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>135.0341266295844</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25058,13 +25058,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>181.0464140131996</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180149</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25174,10 +25174,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25210,16 +25210,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>94.91917273398457</v>
       </c>
       <c r="W35" t="n">
-        <v>158.8955716431281</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25250,7 +25250,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>55.31854389949292</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25292,16 +25292,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25365,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25393,10 +25393,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>284.3390338194077</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,10 +25405,10 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>143.4017885227983</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25520,7 +25520,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>17.28883900055851</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25532,13 +25532,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.7586218429135</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25642,16 +25642,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>297.7433466523345</v>
       </c>
       <c r="I41" t="n">
-        <v>20.13049249612121</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25709,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>50.10013888409016</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25763,10 +25763,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>116.5381899775701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25842,10 +25842,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>13.34961990273501</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25964,10 +25964,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25997,19 +25997,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26073,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358659.0160535966</v>
+        <v>365320.8177598846</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358659.0160535968</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59776.50267559939</v>
+        <v>60886.80295998071</v>
       </c>
       <c r="C2" t="n">
-        <v>59776.50267559938</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="D2" t="n">
-        <v>59776.50267559939</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="E2" t="n">
-        <v>59776.50267559938</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="F2" t="n">
-        <v>59776.50267559937</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="G2" t="n">
         <v>83080.33626566618</v>
@@ -26334,28 +26334,28 @@
         <v>83080.33626566618</v>
       </c>
       <c r="I2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="J2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="K2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="L2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="M2" t="n">
-        <v>83080.33626566619</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="N2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="O2" t="n">
         <v>83080.33626566621</v>
       </c>
       <c r="P2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566618</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.87052286425572</v>
+        <v>43.66758612952252</v>
       </c>
       <c r="C4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>36.87052286425572</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>36.87052286425572</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
         <v>179.5324977039669</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8639.090067833808</v>
+        <v>-8408.669599964162</v>
       </c>
       <c r="C6" t="n">
-        <v>23428.79607207802</v>
+        <v>-38174.79780250804</v>
       </c>
       <c r="D6" t="n">
-        <v>23428.79607207803</v>
+        <v>22401.52438416007</v>
       </c>
       <c r="E6" t="n">
-        <v>57056.39607207802</v>
+        <v>56029.1243841601</v>
       </c>
       <c r="F6" t="n">
-        <v>57056.39607207801</v>
+        <v>56029.1243841601</v>
       </c>
       <c r="G6" t="n">
-        <v>14284.70010372822</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="H6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="I6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.12438416004</v>
       </c>
       <c r="J6" t="n">
-        <v>56700.21689420965</v>
+        <v>42027.89224388079</v>
       </c>
       <c r="K6" t="n">
-        <v>68247.13500420057</v>
+        <v>7772.171450527439</v>
       </c>
       <c r="L6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="M6" t="n">
-        <v>68247.13500420055</v>
+        <v>56029.12438416004</v>
       </c>
       <c r="N6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.12438416004</v>
       </c>
       <c r="O6" t="n">
-        <v>20867.25678673678</v>
+        <v>56029.1243841601</v>
       </c>
       <c r="P6" t="n">
-        <v>68247.13500420057</v>
+        <v>56029.12438416007</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>42.34905430330016</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>44.13217237922859</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>42.34905430330019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>42.34905430330016</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>42.34905430330018</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>44.13217237922859</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>42.34905430330019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>113.3808631277494</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N30" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>55.51629994036225</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37405,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37636,10 +37636,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P39" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O42" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
